--- a/assets/excel/ea_report_3_minggu.xlsx
+++ b/assets/excel/ea_report_3_minggu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\faster-ea\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88F062B-4AD2-4B8B-B74C-A86D5AE8515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFC478-B8DE-4ED5-9319-6112C4319D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="205" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1803,6 +1803,13 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1862,13 +1869,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Koma" xfId="2" builtinId="3"/>
@@ -2387,23 +2387,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="158" t="s">
+      <c r="A1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
       <c r="N1" s="1"/>
       <c r="O1" s="123"/>
       <c r="P1" s="123"/>
@@ -2435,21 +2435,21 @@
       <c r="AP1" s="123"/>
     </row>
     <row r="2" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="159" t="s">
+      <c r="A2" s="153"/>
+      <c r="B2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
       <c r="N2" s="3"/>
       <c r="O2" s="123"/>
       <c r="P2" s="123"/>
@@ -2481,8 +2481,8 @@
       <c r="AP2" s="123"/>
     </row>
     <row r="3" spans="1:42" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="151"/>
-      <c r="B3" s="164" t="s">
+      <c r="A3" s="153"/>
+      <c r="B3" s="166" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="124"/>
@@ -2527,8 +2527,8 @@
       <c r="AP3" s="123"/>
     </row>
     <row r="4" spans="1:42" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151"/>
-      <c r="B4" s="164"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="127"/>
       <c r="D4" s="127"/>
       <c r="E4" s="127"/>
@@ -2574,23 +2574,23 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="163" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="163"/>
+      <c r="F5" s="165"/>
       <c r="G5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="163" t="s">
+      <c r="H5" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
       <c r="K5" s="115" t="s">
         <v>9</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="M7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="152"/>
+      <c r="N7" s="154"/>
       <c r="O7" s="130"/>
       <c r="P7" s="130"/>
       <c r="Q7" s="130"/>
@@ -2760,7 +2760,7 @@
       <c r="K8" s="56"/>
       <c r="L8" s="39"/>
       <c r="M8" s="105"/>
-      <c r="N8" s="153"/>
+      <c r="N8" s="155"/>
       <c r="O8" s="123"/>
       <c r="P8" s="123"/>
       <c r="Q8" s="123"/>
@@ -3688,21 +3688,21 @@
       <c r="B36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="159"/>
       <c r="J36" s="85"/>
-      <c r="K36" s="160" t="s">
+      <c r="K36" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="161"/>
-      <c r="M36" s="162"/>
+      <c r="L36" s="163"/>
+      <c r="M36" s="164"/>
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3730,10 +3730,10 @@
         <v>79</v>
       </c>
       <c r="J37" s="86"/>
-      <c r="K37" s="149" t="s">
+      <c r="K37" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="150"/>
+      <c r="L37" s="152"/>
       <c r="M37" s="21" t="s">
         <v>81</v>
       </c>
@@ -3897,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3915,37 +3915,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="158" t="s">
+      <c r="A1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="123"/>
       <c r="AD1" s="123"/>
@@ -3977,35 +3977,35 @@
       <c r="BD1" s="123"/>
     </row>
     <row r="2" spans="1:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="159" t="s">
+      <c r="A2" s="153"/>
+      <c r="B2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="123"/>
       <c r="AD2" s="123"/>
@@ -4037,8 +4037,8 @@
       <c r="BD2" s="123"/>
     </row>
     <row r="3" spans="1:56" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="151"/>
-      <c r="B3" s="164" t="s">
+      <c r="A3" s="153"/>
+      <c r="B3" s="166" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="124"/>
@@ -4097,8 +4097,8 @@
       <c r="BD3" s="123"/>
     </row>
     <row r="4" spans="1:56" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151"/>
-      <c r="B4" s="164"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="127"/>
       <c r="D4" s="127"/>
       <c r="E4" s="127"/>
@@ -4158,35 +4158,35 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="163" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="163"/>
+      <c r="T5" s="165"/>
       <c r="U5" s="119"/>
-      <c r="V5" s="163" t="s">
+      <c r="V5" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
       <c r="Y5" s="115" t="s">
         <v>85</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="AA7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="152"/>
+      <c r="AB7" s="154"/>
       <c r="AC7" s="130"/>
       <c r="AD7" s="130"/>
       <c r="AE7" s="130"/>
@@ -4418,7 +4418,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="39"/>
       <c r="AA8" s="105"/>
-      <c r="AB8" s="153"/>
+      <c r="AB8" s="155"/>
       <c r="AC8" s="123"/>
       <c r="AD8" s="123"/>
       <c r="AE8" s="123"/>
@@ -5656,8 +5656,8 @@
         <v>70</v>
       </c>
       <c r="J34" s="77"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="168"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="150"/>
       <c r="M34" s="80"/>
       <c r="N34" s="132"/>
       <c r="O34" s="132"/>
@@ -5710,35 +5710,35 @@
       <c r="B36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="166"/>
-      <c r="L36" s="166"/>
-      <c r="M36" s="166"/>
-      <c r="N36" s="166"/>
-      <c r="O36" s="166"/>
-      <c r="P36" s="166"/>
-      <c r="Q36" s="165"/>
-      <c r="R36" s="166"/>
-      <c r="S36" s="166"/>
-      <c r="T36" s="166"/>
-      <c r="U36" s="166"/>
-      <c r="V36" s="166"/>
-      <c r="W36" s="166"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="168"/>
+      <c r="N36" s="168"/>
+      <c r="O36" s="168"/>
+      <c r="P36" s="168"/>
+      <c r="Q36" s="167"/>
+      <c r="R36" s="168"/>
+      <c r="S36" s="168"/>
+      <c r="T36" s="168"/>
+      <c r="U36" s="168"/>
+      <c r="V36" s="168"/>
+      <c r="W36" s="168"/>
       <c r="X36" s="85"/>
-      <c r="Y36" s="160" t="s">
+      <c r="Y36" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="Z36" s="161"/>
-      <c r="AA36" s="162"/>
+      <c r="Z36" s="163"/>
+      <c r="AA36" s="164"/>
       <c r="AB36" s="18"/>
     </row>
     <row r="37" spans="1:28" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5780,10 +5780,10 @@
       <c r="V37"/>
       <c r="W37"/>
       <c r="X37" s="86"/>
-      <c r="Y37" s="149" t="s">
+      <c r="Y37" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="Z37" s="150"/>
+      <c r="Z37" s="152"/>
       <c r="AA37" s="21" t="s">
         <v>81</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="122"/>
       <c r="D38" s="134">
-        <f>X15+X16+X17+X18+X23+X27+X28+X19</f>
+        <f>X15+X16+X17+X18+X23+X27+X28+X19+X24+X25+X26+X29</f>
         <v>0</v>
       </c>
       <c r="E38" s="88"/>
@@ -5863,10 +5863,7 @@
         <v>82</v>
       </c>
       <c r="C40" s="90"/>
-      <c r="D40" s="138">
-        <f>Q19+Q24+Q25+Q30+Q31</f>
-        <v>0</v>
-      </c>
+      <c r="D40" s="138"/>
       <c r="E40" s="93"/>
       <c r="F40" s="139"/>
       <c r="G40" s="138"/>

--- a/assets/excel/ea_report_3_minggu.xlsx
+++ b/assets/excel/ea_report_3_minggu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\faster-ea\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFC478-B8DE-4ED5-9319-6112C4319D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B44C0E-E1E0-4322-804B-A2F4DC8027F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="205" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="88">
   <si>
     <t>Letters correspond to Expense Report Instructions Worksheet</t>
   </si>
@@ -538,9 +538,6 @@
       </rPr>
       <t>(Hotel to Home)</t>
     </r>
-  </si>
-  <si>
-    <t>12970357</t>
   </si>
   <si>
     <t>Name: "Requestor"</t>
@@ -1375,7 +1372,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1741,9 +1738,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="33" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1869,6 +1863,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Koma" xfId="2" builtinId="3"/>
@@ -2387,247 +2387,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="160" t="s">
+      <c r="A1" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="122"/>
+      <c r="AK1" s="122"/>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
     </row>
     <row r="2" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="161" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="123"/>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
     </row>
     <row r="3" spans="1:42" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="166" t="s">
+      <c r="A3" s="152"/>
+      <c r="B3" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="123"/>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122"/>
     </row>
     <row r="4" spans="1:42" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123"/>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
     </row>
     <row r="5" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="165" t="s">
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="165"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="165" t="s">
+      <c r="H5" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
       <c r="K5" s="115" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="37"/>
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="123"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="123"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="123"/>
-      <c r="AO5" s="123"/>
-      <c r="AP5" s="123"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="122"/>
+      <c r="AO5" s="122"/>
+      <c r="AP5" s="122"/>
     </row>
     <row r="6" spans="1:42" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="128"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="8"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -2641,37 +2641,37 @@
       <c r="L6" s="38"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123"/>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123"/>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123"/>
-      <c r="AP6" s="123"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="122"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="122"/>
+      <c r="AO6" s="122"/>
+      <c r="AP6" s="122"/>
     </row>
     <row r="7" spans="1:42" s="113" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="129"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="109"/>
       <c r="C7" s="52" t="s">
         <v>10</v>
@@ -2706,38 +2706,38 @@
       <c r="M7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="154"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="130"/>
-      <c r="AJ7" s="130"/>
-      <c r="AK7" s="130"/>
-      <c r="AL7" s="130"/>
-      <c r="AM7" s="130"/>
-      <c r="AN7" s="130"/>
-      <c r="AO7" s="130"/>
-      <c r="AP7" s="130"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="129"/>
+      <c r="AM7" s="129"/>
+      <c r="AN7" s="129"/>
+      <c r="AO7" s="129"/>
+      <c r="AP7" s="129"/>
     </row>
     <row r="8" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -2760,35 +2760,35 @@
       <c r="K8" s="56"/>
       <c r="L8" s="39"/>
       <c r="M8" s="105"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="123"/>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="123"/>
-      <c r="AC8" s="123"/>
-      <c r="AD8" s="123"/>
-      <c r="AE8" s="123"/>
-      <c r="AF8" s="123"/>
-      <c r="AG8" s="123"/>
-      <c r="AH8" s="123"/>
-      <c r="AI8" s="123"/>
-      <c r="AJ8" s="123"/>
-      <c r="AK8" s="123"/>
-      <c r="AL8" s="123"/>
-      <c r="AM8" s="123"/>
-      <c r="AN8" s="123"/>
-      <c r="AO8" s="123"/>
-      <c r="AP8" s="123"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="122"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="122"/>
+      <c r="AO8" s="122"/>
+      <c r="AP8" s="122"/>
     </row>
     <row r="9" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -2817,34 +2817,34 @@
       <c r="L9" s="40"/>
       <c r="M9" s="22"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="123"/>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="123"/>
-      <c r="AI9" s="123"/>
-      <c r="AJ9" s="123"/>
-      <c r="AK9" s="123"/>
-      <c r="AL9" s="123"/>
-      <c r="AM9" s="123"/>
-      <c r="AN9" s="123"/>
-      <c r="AO9" s="123"/>
-      <c r="AP9" s="123"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="122"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="122"/>
+      <c r="AL9" s="122"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="122"/>
+      <c r="AO9" s="122"/>
+      <c r="AP9" s="122"/>
     </row>
     <row r="10" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -2869,34 +2869,34 @@
       <c r="L10" s="41"/>
       <c r="M10" s="22"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="123"/>
-      <c r="AD10" s="123"/>
-      <c r="AE10" s="123"/>
-      <c r="AF10" s="123"/>
-      <c r="AG10" s="123"/>
-      <c r="AH10" s="123"/>
-      <c r="AI10" s="123"/>
-      <c r="AJ10" s="123"/>
-      <c r="AK10" s="123"/>
-      <c r="AL10" s="123"/>
-      <c r="AM10" s="123"/>
-      <c r="AN10" s="123"/>
-      <c r="AO10" s="123"/>
-      <c r="AP10" s="123"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="122"/>
+      <c r="AO10" s="122"/>
+      <c r="AP10" s="122"/>
     </row>
     <row r="11" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -2921,34 +2921,34 @@
       <c r="L11" s="41"/>
       <c r="M11" s="22"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="123"/>
-      <c r="AI11" s="123"/>
-      <c r="AJ11" s="123"/>
-      <c r="AK11" s="123"/>
-      <c r="AL11" s="123"/>
-      <c r="AM11" s="123"/>
-      <c r="AN11" s="123"/>
-      <c r="AO11" s="123"/>
-      <c r="AP11" s="123"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="122"/>
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="122"/>
+      <c r="AO11" s="122"/>
+      <c r="AP11" s="122"/>
     </row>
     <row r="12" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -2971,34 +2971,34 @@
       <c r="L12" s="41"/>
       <c r="M12" s="22"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="123"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="123"/>
-      <c r="AD12" s="123"/>
-      <c r="AE12" s="123"/>
-      <c r="AF12" s="123"/>
-      <c r="AG12" s="123"/>
-      <c r="AH12" s="123"/>
-      <c r="AI12" s="123"/>
-      <c r="AJ12" s="123"/>
-      <c r="AK12" s="123"/>
-      <c r="AL12" s="123"/>
-      <c r="AM12" s="123"/>
-      <c r="AN12" s="123"/>
-      <c r="AO12" s="123"/>
-      <c r="AP12" s="123"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="122"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
+      <c r="AN12" s="122"/>
+      <c r="AO12" s="122"/>
+      <c r="AP12" s="122"/>
     </row>
     <row r="13" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3017,34 +3017,34 @@
       <c r="L13" s="41"/>
       <c r="M13" s="22"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="123"/>
-      <c r="Z13" s="123"/>
-      <c r="AA13" s="123"/>
-      <c r="AB13" s="123"/>
-      <c r="AC13" s="123"/>
-      <c r="AD13" s="123"/>
-      <c r="AE13" s="123"/>
-      <c r="AF13" s="123"/>
-      <c r="AG13" s="123"/>
-      <c r="AH13" s="123"/>
-      <c r="AI13" s="123"/>
-      <c r="AJ13" s="123"/>
-      <c r="AK13" s="123"/>
-      <c r="AL13" s="123"/>
-      <c r="AM13" s="123"/>
-      <c r="AN13" s="123"/>
-      <c r="AO13" s="123"/>
-      <c r="AP13" s="123"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AN13" s="122"/>
+      <c r="AO13" s="122"/>
+      <c r="AP13" s="122"/>
     </row>
     <row r="14" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -3063,34 +3063,34 @@
       <c r="L14" s="41"/>
       <c r="M14" s="22"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="123"/>
-      <c r="AD14" s="123"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="123"/>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="123"/>
-      <c r="AM14" s="123"/>
-      <c r="AN14" s="123"/>
-      <c r="AO14" s="123"/>
-      <c r="AP14" s="123"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="122"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="122"/>
+      <c r="AJ14" s="122"/>
+      <c r="AK14" s="122"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
+      <c r="AN14" s="122"/>
+      <c r="AO14" s="122"/>
+      <c r="AP14" s="122"/>
     </row>
     <row r="15" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -3116,34 +3116,34 @@
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="123"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="123"/>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="123"/>
-      <c r="AC15" s="123"/>
-      <c r="AD15" s="123"/>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="123"/>
-      <c r="AK15" s="123"/>
-      <c r="AL15" s="123"/>
-      <c r="AM15" s="123"/>
-      <c r="AN15" s="123"/>
-      <c r="AO15" s="123"/>
-      <c r="AP15" s="123"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="122"/>
+      <c r="X15" s="122"/>
+      <c r="Y15" s="122"/>
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="122"/>
+      <c r="AB15" s="122"/>
+      <c r="AC15" s="122"/>
+      <c r="AD15" s="122"/>
+      <c r="AE15" s="122"/>
+      <c r="AF15" s="122"/>
+      <c r="AG15" s="122"/>
+      <c r="AH15" s="122"/>
+      <c r="AI15" s="122"/>
+      <c r="AJ15" s="122"/>
+      <c r="AK15" s="122"/>
+      <c r="AL15" s="122"/>
+      <c r="AM15" s="122"/>
+      <c r="AN15" s="122"/>
+      <c r="AO15" s="122"/>
+      <c r="AP15" s="122"/>
     </row>
     <row r="16" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
@@ -3169,34 +3169,34 @@
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="123"/>
-      <c r="Z16" s="123"/>
-      <c r="AA16" s="123"/>
-      <c r="AB16" s="123"/>
-      <c r="AC16" s="123"/>
-      <c r="AD16" s="123"/>
-      <c r="AE16" s="123"/>
-      <c r="AF16" s="123"/>
-      <c r="AG16" s="123"/>
-      <c r="AH16" s="123"/>
-      <c r="AI16" s="123"/>
-      <c r="AJ16" s="123"/>
-      <c r="AK16" s="123"/>
-      <c r="AL16" s="123"/>
-      <c r="AM16" s="123"/>
-      <c r="AN16" s="123"/>
-      <c r="AO16" s="123"/>
-      <c r="AP16" s="123"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="122"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="122"/>
+      <c r="AE16" s="122"/>
+      <c r="AF16" s="122"/>
+      <c r="AG16" s="122"/>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="122"/>
+      <c r="AK16" s="122"/>
+      <c r="AL16" s="122"/>
+      <c r="AM16" s="122"/>
+      <c r="AN16" s="122"/>
+      <c r="AO16" s="122"/>
+      <c r="AP16" s="122"/>
     </row>
     <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="123"/>
+      <c r="O17" s="122"/>
     </row>
     <row r="18" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="14"/>
-      <c r="O18" s="123"/>
+      <c r="O18" s="122"/>
     </row>
     <row r="19" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="14"/>
-      <c r="O19" s="123"/>
+      <c r="O19" s="122"/>
     </row>
     <row r="20" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="131"/>
+      <c r="O20" s="130"/>
     </row>
     <row r="21" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="14"/>
-      <c r="O21" s="128"/>
+      <c r="O21" s="127"/>
     </row>
     <row r="22" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -3352,7 +3352,7 @@
       <c r="L22" s="42"/>
       <c r="M22" s="22"/>
       <c r="N22" s="14"/>
-      <c r="O22" s="128"/>
+      <c r="O22" s="127"/>
     </row>
     <row r="23" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="123"/>
+      <c r="O23" s="122"/>
     </row>
     <row r="24" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="123"/>
+      <c r="O24" s="122"/>
     </row>
     <row r="25" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="123"/>
+      <c r="O25" s="122"/>
     </row>
     <row r="26" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="123"/>
+      <c r="O26" s="122"/>
     </row>
     <row r="27" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="M27" s="22"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="123"/>
+      <c r="O27" s="122"/>
     </row>
     <row r="28" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="123"/>
+      <c r="O28" s="122"/>
     </row>
     <row r="29" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
@@ -3534,7 +3534,7 @@
       <c r="L29" s="42"/>
       <c r="M29" s="22"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="123"/>
+      <c r="O29" s="122"/>
     </row>
     <row r="30" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="123"/>
+      <c r="O30" s="122"/>
     </row>
     <row r="31" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="M31" s="106"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="123"/>
+      <c r="O31" s="122"/>
     </row>
     <row r="32" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
@@ -3625,11 +3625,11 @@
       <c r="L32" s="101"/>
       <c r="M32" s="107"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="123"/>
+      <c r="O32" s="122"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="128"/>
-      <c r="B33" s="128"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="76"/>
       <c r="D33" s="76"/>
       <c r="E33" s="76"/>
@@ -3656,8 +3656,8 @@
         <v>69</v>
       </c>
       <c r="F34" s="80"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
       <c r="I34" s="82" t="s">
         <v>70</v>
       </c>
@@ -3668,45 +3668,45 @@
       <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="128"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
     </row>
     <row r="36" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="128"/>
+      <c r="A36" s="127"/>
       <c r="B36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="157" t="s">
+      <c r="C36" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="159"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="158"/>
       <c r="J36" s="85"/>
-      <c r="K36" s="162" t="s">
+      <c r="K36" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="163"/>
-      <c r="M36" s="164"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="163"/>
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="128"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="24" t="s">
         <v>74</v>
       </c>
@@ -3730,103 +3730,103 @@
         <v>79</v>
       </c>
       <c r="J37" s="86"/>
-      <c r="K37" s="151" t="s">
+      <c r="K37" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="152"/>
+      <c r="L37" s="151"/>
       <c r="M37" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="N37" s="123"/>
+      <c r="N37" s="122"/>
     </row>
     <row r="38" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="128"/>
+      <c r="A38" s="127"/>
       <c r="B38" s="19"/>
       <c r="C38" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="134">
+      <c r="D38" s="133">
         <f>J15+J16+J17+J18+J23+J27+J28</f>
         <v>550000</v>
       </c>
       <c r="E38" s="88"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="137"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="136"/>
       <c r="K38" s="89"/>
       <c r="L38" s="26"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="123"/>
+      <c r="N38" s="122"/>
     </row>
     <row r="39" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="128"/>
+      <c r="A39" s="127"/>
       <c r="B39" s="19"/>
       <c r="C39" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="138">
+      <c r="D39" s="137">
         <f>J20+J21</f>
         <v>2070200</v>
       </c>
       <c r="E39" s="91"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="137"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="136"/>
       <c r="K39" s="92"/>
       <c r="L39" s="28"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="123"/>
+      <c r="N39" s="122"/>
     </row>
     <row r="40" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="128"/>
+      <c r="A40" s="127"/>
       <c r="B40" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="138">
+      <c r="D40" s="137">
         <f>J19+J24+J25+J30+J31</f>
         <v>0</v>
       </c>
       <c r="E40" s="93"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="137"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="136"/>
       <c r="K40" s="92"/>
       <c r="L40" s="28"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="123"/>
+      <c r="N40" s="122"/>
     </row>
     <row r="41" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="128"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="142"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="141"/>
       <c r="E41" s="94"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="137"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="136"/>
       <c r="K41" s="92"/>
       <c r="L41" s="28"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="123"/>
+      <c r="N41" s="122"/>
     </row>
     <row r="42" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="128"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="23"/>
       <c r="C42" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="145">
+      <c r="D42" s="144">
         <f>D40+D39+D38</f>
         <v>2620200</v>
       </c>
@@ -3834,39 +3834,39 @@
         <f>D42</f>
         <v>2620200</v>
       </c>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="145">
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="144">
         <f>IF(G42&lt;E42,E42-G42,0)</f>
         <v>2620200</v>
       </c>
-      <c r="I42" s="147">
+      <c r="I42" s="146">
         <f>IF(G42&gt;E42,G42-E42,0)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="137"/>
+      <c r="J42" s="136"/>
       <c r="K42" s="102"/>
       <c r="L42" s="103"/>
       <c r="M42" s="104"/>
-      <c r="N42" s="123"/>
+      <c r="N42" s="122"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="128"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
@@ -3897,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3915,315 +3915,315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="160" t="s">
+      <c r="A1" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="123"/>
-      <c r="AU1" s="123"/>
-      <c r="AV1" s="123"/>
-      <c r="AW1" s="123"/>
-      <c r="AX1" s="123"/>
-      <c r="AY1" s="123"/>
-      <c r="AZ1" s="123"/>
-      <c r="BA1" s="123"/>
-      <c r="BB1" s="123"/>
-      <c r="BC1" s="123"/>
-      <c r="BD1" s="123"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="122"/>
+      <c r="AK1" s="122"/>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="122"/>
+      <c r="AX1" s="122"/>
+      <c r="AY1" s="122"/>
+      <c r="AZ1" s="122"/>
+      <c r="BA1" s="122"/>
+      <c r="BB1" s="122"/>
+      <c r="BC1" s="122"/>
+      <c r="BD1" s="122"/>
     </row>
     <row r="2" spans="1:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="161" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
       <c r="AB2" s="3"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="123"/>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
-      <c r="AR2" s="123"/>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123"/>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="123"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="123"/>
-      <c r="AZ2" s="123"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="123"/>
-      <c r="BC2" s="123"/>
-      <c r="BD2" s="123"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="122"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="122"/>
+      <c r="BC2" s="122"/>
+      <c r="BD2" s="122"/>
     </row>
     <row r="3" spans="1:56" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="166" t="s">
+      <c r="A3" s="152"/>
+      <c r="B3" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="123"/>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="123"/>
-      <c r="AX3" s="123"/>
-      <c r="AY3" s="123"/>
-      <c r="AZ3" s="123"/>
-      <c r="BA3" s="123"/>
-      <c r="BB3" s="123"/>
-      <c r="BC3" s="123"/>
-      <c r="BD3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122"/>
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="122"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="122"/>
+      <c r="AY3" s="122"/>
+      <c r="AZ3" s="122"/>
+      <c r="BA3" s="122"/>
+      <c r="BB3" s="122"/>
+      <c r="BC3" s="122"/>
+      <c r="BD3" s="122"/>
     </row>
     <row r="4" spans="1:56" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123"/>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123"/>
-      <c r="AX4" s="123"/>
-      <c r="AY4" s="123"/>
-      <c r="AZ4" s="123"/>
-      <c r="BA4" s="123"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="123"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="122"/>
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="122"/>
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="122"/>
     </row>
     <row r="5" spans="1:56" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="156" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="165" t="s">
+      <c r="B5" s="155" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="165"/>
+      <c r="T5" s="164"/>
       <c r="U5" s="119"/>
-      <c r="V5" s="165" t="s">
+      <c r="V5" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
+      <c r="W5" s="164"/>
+      <c r="X5" s="164"/>
       <c r="Y5" s="115" t="s">
         <v>85</v>
       </c>
       <c r="Z5" s="37"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="6"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="123"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="123"/>
-      <c r="AO5" s="123"/>
-      <c r="AP5" s="123"/>
-      <c r="AQ5" s="123"/>
-      <c r="AR5" s="123"/>
-      <c r="AS5" s="123"/>
-      <c r="AT5" s="123"/>
-      <c r="AU5" s="123"/>
-      <c r="AV5" s="123"/>
-      <c r="AW5" s="123"/>
-      <c r="AX5" s="123"/>
-      <c r="AY5" s="123"/>
-      <c r="AZ5" s="123"/>
-      <c r="BA5" s="123"/>
-      <c r="BB5" s="123"/>
-      <c r="BC5" s="123"/>
-      <c r="BD5" s="123"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="122"/>
+      <c r="AO5" s="122"/>
+      <c r="AP5" s="122"/>
+      <c r="AQ5" s="122"/>
+      <c r="AR5" s="122"/>
+      <c r="AS5" s="122"/>
+      <c r="AT5" s="122"/>
+      <c r="AU5" s="122"/>
+      <c r="AV5" s="122"/>
+      <c r="AW5" s="122"/>
+      <c r="AX5" s="122"/>
+      <c r="AY5" s="122"/>
+      <c r="AZ5" s="122"/>
+      <c r="BA5" s="122"/>
+      <c r="BB5" s="122"/>
+      <c r="BC5" s="122"/>
+      <c r="BD5" s="122"/>
     </row>
     <row r="6" spans="1:56" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="128"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="8"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -4251,37 +4251,37 @@
       <c r="Z6" s="38"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123"/>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123"/>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123"/>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123"/>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123"/>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="122"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="122"/>
+      <c r="AO6" s="122"/>
+      <c r="AP6" s="122"/>
+      <c r="AQ6" s="122"/>
+      <c r="AR6" s="122"/>
+      <c r="AS6" s="122"/>
+      <c r="AT6" s="122"/>
+      <c r="AU6" s="122"/>
+      <c r="AV6" s="122"/>
+      <c r="AW6" s="122"/>
+      <c r="AX6" s="122"/>
+      <c r="AY6" s="122"/>
+      <c r="AZ6" s="122"/>
+      <c r="BA6" s="122"/>
+      <c r="BB6" s="122"/>
+      <c r="BC6" s="122"/>
+      <c r="BD6" s="122"/>
     </row>
     <row r="7" spans="1:56" s="113" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="129"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="109"/>
       <c r="C7" s="52" t="s">
         <v>10</v>
@@ -4358,38 +4358,38 @@
       <c r="AA7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="130"/>
-      <c r="AJ7" s="130"/>
-      <c r="AK7" s="130"/>
-      <c r="AL7" s="130"/>
-      <c r="AM7" s="130"/>
-      <c r="AN7" s="130"/>
-      <c r="AO7" s="130"/>
-      <c r="AP7" s="130"/>
-      <c r="AQ7" s="130"/>
-      <c r="AR7" s="130"/>
-      <c r="AS7" s="130"/>
-      <c r="AT7" s="130"/>
-      <c r="AU7" s="130"/>
-      <c r="AV7" s="130"/>
-      <c r="AW7" s="130"/>
-      <c r="AX7" s="130"/>
-      <c r="AY7" s="130"/>
-      <c r="AZ7" s="130"/>
-      <c r="BA7" s="130"/>
-      <c r="BB7" s="130"/>
-      <c r="BC7" s="130"/>
-      <c r="BD7" s="130"/>
+      <c r="AB7" s="153"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="129"/>
+      <c r="AM7" s="129"/>
+      <c r="AN7" s="129"/>
+      <c r="AO7" s="129"/>
+      <c r="AP7" s="129"/>
+      <c r="AQ7" s="129"/>
+      <c r="AR7" s="129"/>
+      <c r="AS7" s="129"/>
+      <c r="AT7" s="129"/>
+      <c r="AU7" s="129"/>
+      <c r="AV7" s="129"/>
+      <c r="AW7" s="129"/>
+      <c r="AX7" s="129"/>
+      <c r="AY7" s="129"/>
+      <c r="AZ7" s="129"/>
+      <c r="BA7" s="129"/>
+      <c r="BB7" s="129"/>
+      <c r="BC7" s="129"/>
+      <c r="BD7" s="129"/>
     </row>
     <row r="8" spans="1:56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -4418,35 +4418,35 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="39"/>
       <c r="AA8" s="105"/>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="123"/>
-      <c r="AD8" s="123"/>
-      <c r="AE8" s="123"/>
-      <c r="AF8" s="123"/>
-      <c r="AG8" s="123"/>
-      <c r="AH8" s="123"/>
-      <c r="AI8" s="123"/>
-      <c r="AJ8" s="123"/>
-      <c r="AK8" s="123"/>
-      <c r="AL8" s="123"/>
-      <c r="AM8" s="123"/>
-      <c r="AN8" s="123"/>
-      <c r="AO8" s="123"/>
-      <c r="AP8" s="123"/>
-      <c r="AQ8" s="123"/>
-      <c r="AR8" s="123"/>
-      <c r="AS8" s="123"/>
-      <c r="AT8" s="123"/>
-      <c r="AU8" s="123"/>
-      <c r="AV8" s="123"/>
-      <c r="AW8" s="123"/>
-      <c r="AX8" s="123"/>
-      <c r="AY8" s="123"/>
-      <c r="AZ8" s="123"/>
-      <c r="BA8" s="123"/>
-      <c r="BB8" s="123"/>
-      <c r="BC8" s="123"/>
-      <c r="BD8" s="123"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="122"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="122"/>
+      <c r="AO8" s="122"/>
+      <c r="AP8" s="122"/>
+      <c r="AQ8" s="122"/>
+      <c r="AR8" s="122"/>
+      <c r="AS8" s="122"/>
+      <c r="AT8" s="122"/>
+      <c r="AU8" s="122"/>
+      <c r="AV8" s="122"/>
+      <c r="AW8" s="122"/>
+      <c r="AX8" s="122"/>
+      <c r="AY8" s="122"/>
+      <c r="AZ8" s="122"/>
+      <c r="BA8" s="122"/>
+      <c r="BB8" s="122"/>
+      <c r="BC8" s="122"/>
+      <c r="BD8" s="122"/>
     </row>
     <row r="9" spans="1:56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -4481,34 +4481,34 @@
       <c r="Z9" s="40"/>
       <c r="AA9" s="22"/>
       <c r="AB9" s="10"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="123"/>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="123"/>
-      <c r="AI9" s="123"/>
-      <c r="AJ9" s="123"/>
-      <c r="AK9" s="123"/>
-      <c r="AL9" s="123"/>
-      <c r="AM9" s="123"/>
-      <c r="AN9" s="123"/>
-      <c r="AO9" s="123"/>
-      <c r="AP9" s="123"/>
-      <c r="AQ9" s="123"/>
-      <c r="AR9" s="123"/>
-      <c r="AS9" s="123"/>
-      <c r="AT9" s="123"/>
-      <c r="AU9" s="123"/>
-      <c r="AV9" s="123"/>
-      <c r="AW9" s="123"/>
-      <c r="AX9" s="123"/>
-      <c r="AY9" s="123"/>
-      <c r="AZ9" s="123"/>
-      <c r="BA9" s="123"/>
-      <c r="BB9" s="123"/>
-      <c r="BC9" s="123"/>
-      <c r="BD9" s="123"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="122"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="122"/>
+      <c r="AL9" s="122"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="122"/>
+      <c r="AO9" s="122"/>
+      <c r="AP9" s="122"/>
+      <c r="AQ9" s="122"/>
+      <c r="AR9" s="122"/>
+      <c r="AS9" s="122"/>
+      <c r="AT9" s="122"/>
+      <c r="AU9" s="122"/>
+      <c r="AV9" s="122"/>
+      <c r="AW9" s="122"/>
+      <c r="AX9" s="122"/>
+      <c r="AY9" s="122"/>
+      <c r="AZ9" s="122"/>
+      <c r="BA9" s="122"/>
+      <c r="BB9" s="122"/>
+      <c r="BC9" s="122"/>
+      <c r="BD9" s="122"/>
     </row>
     <row r="10" spans="1:56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -4543,34 +4543,34 @@
       <c r="Z10" s="41"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="12"/>
-      <c r="AC10" s="123"/>
-      <c r="AD10" s="123"/>
-      <c r="AE10" s="123"/>
-      <c r="AF10" s="123"/>
-      <c r="AG10" s="123"/>
-      <c r="AH10" s="123"/>
-      <c r="AI10" s="123"/>
-      <c r="AJ10" s="123"/>
-      <c r="AK10" s="123"/>
-      <c r="AL10" s="123"/>
-      <c r="AM10" s="123"/>
-      <c r="AN10" s="123"/>
-      <c r="AO10" s="123"/>
-      <c r="AP10" s="123"/>
-      <c r="AQ10" s="123"/>
-      <c r="AR10" s="123"/>
-      <c r="AS10" s="123"/>
-      <c r="AT10" s="123"/>
-      <c r="AU10" s="123"/>
-      <c r="AV10" s="123"/>
-      <c r="AW10" s="123"/>
-      <c r="AX10" s="123"/>
-      <c r="AY10" s="123"/>
-      <c r="AZ10" s="123"/>
-      <c r="BA10" s="123"/>
-      <c r="BB10" s="123"/>
-      <c r="BC10" s="123"/>
-      <c r="BD10" s="123"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="122"/>
+      <c r="AO10" s="122"/>
+      <c r="AP10" s="122"/>
+      <c r="AQ10" s="122"/>
+      <c r="AR10" s="122"/>
+      <c r="AS10" s="122"/>
+      <c r="AT10" s="122"/>
+      <c r="AU10" s="122"/>
+      <c r="AV10" s="122"/>
+      <c r="AW10" s="122"/>
+      <c r="AX10" s="122"/>
+      <c r="AY10" s="122"/>
+      <c r="AZ10" s="122"/>
+      <c r="BA10" s="122"/>
+      <c r="BB10" s="122"/>
+      <c r="BC10" s="122"/>
+      <c r="BD10" s="122"/>
     </row>
     <row r="11" spans="1:56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -4605,34 +4605,34 @@
       <c r="Z11" s="41"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="12"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="123"/>
-      <c r="AI11" s="123"/>
-      <c r="AJ11" s="123"/>
-      <c r="AK11" s="123"/>
-      <c r="AL11" s="123"/>
-      <c r="AM11" s="123"/>
-      <c r="AN11" s="123"/>
-      <c r="AO11" s="123"/>
-      <c r="AP11" s="123"/>
-      <c r="AQ11" s="123"/>
-      <c r="AR11" s="123"/>
-      <c r="AS11" s="123"/>
-      <c r="AT11" s="123"/>
-      <c r="AU11" s="123"/>
-      <c r="AV11" s="123"/>
-      <c r="AW11" s="123"/>
-      <c r="AX11" s="123"/>
-      <c r="AY11" s="123"/>
-      <c r="AZ11" s="123"/>
-      <c r="BA11" s="123"/>
-      <c r="BB11" s="123"/>
-      <c r="BC11" s="123"/>
-      <c r="BD11" s="123"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="122"/>
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="122"/>
+      <c r="AO11" s="122"/>
+      <c r="AP11" s="122"/>
+      <c r="AQ11" s="122"/>
+      <c r="AR11" s="122"/>
+      <c r="AS11" s="122"/>
+      <c r="AT11" s="122"/>
+      <c r="AU11" s="122"/>
+      <c r="AV11" s="122"/>
+      <c r="AW11" s="122"/>
+      <c r="AX11" s="122"/>
+      <c r="AY11" s="122"/>
+      <c r="AZ11" s="122"/>
+      <c r="BA11" s="122"/>
+      <c r="BB11" s="122"/>
+      <c r="BC11" s="122"/>
+      <c r="BD11" s="122"/>
     </row>
     <row r="12" spans="1:56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -4665,34 +4665,34 @@
       <c r="Z12" s="41"/>
       <c r="AA12" s="22"/>
       <c r="AB12" s="12"/>
-      <c r="AC12" s="123"/>
-      <c r="AD12" s="123"/>
-      <c r="AE12" s="123"/>
-      <c r="AF12" s="123"/>
-      <c r="AG12" s="123"/>
-      <c r="AH12" s="123"/>
-      <c r="AI12" s="123"/>
-      <c r="AJ12" s="123"/>
-      <c r="AK12" s="123"/>
-      <c r="AL12" s="123"/>
-      <c r="AM12" s="123"/>
-      <c r="AN12" s="123"/>
-      <c r="AO12" s="123"/>
-      <c r="AP12" s="123"/>
-      <c r="AQ12" s="123"/>
-      <c r="AR12" s="123"/>
-      <c r="AS12" s="123"/>
-      <c r="AT12" s="123"/>
-      <c r="AU12" s="123"/>
-      <c r="AV12" s="123"/>
-      <c r="AW12" s="123"/>
-      <c r="AX12" s="123"/>
-      <c r="AY12" s="123"/>
-      <c r="AZ12" s="123"/>
-      <c r="BA12" s="123"/>
-      <c r="BB12" s="123"/>
-      <c r="BC12" s="123"/>
-      <c r="BD12" s="123"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="122"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
+      <c r="AN12" s="122"/>
+      <c r="AO12" s="122"/>
+      <c r="AP12" s="122"/>
+      <c r="AQ12" s="122"/>
+      <c r="AR12" s="122"/>
+      <c r="AS12" s="122"/>
+      <c r="AT12" s="122"/>
+      <c r="AU12" s="122"/>
+      <c r="AV12" s="122"/>
+      <c r="AW12" s="122"/>
+      <c r="AX12" s="122"/>
+      <c r="AY12" s="122"/>
+      <c r="AZ12" s="122"/>
+      <c r="BA12" s="122"/>
+      <c r="BB12" s="122"/>
+      <c r="BC12" s="122"/>
+      <c r="BD12" s="122"/>
     </row>
     <row r="13" spans="1:56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4725,34 +4725,34 @@
       <c r="Z13" s="41"/>
       <c r="AA13" s="22"/>
       <c r="AB13" s="12"/>
-      <c r="AC13" s="123"/>
-      <c r="AD13" s="123"/>
-      <c r="AE13" s="123"/>
-      <c r="AF13" s="123"/>
-      <c r="AG13" s="123"/>
-      <c r="AH13" s="123"/>
-      <c r="AI13" s="123"/>
-      <c r="AJ13" s="123"/>
-      <c r="AK13" s="123"/>
-      <c r="AL13" s="123"/>
-      <c r="AM13" s="123"/>
-      <c r="AN13" s="123"/>
-      <c r="AO13" s="123"/>
-      <c r="AP13" s="123"/>
-      <c r="AQ13" s="123"/>
-      <c r="AR13" s="123"/>
-      <c r="AS13" s="123"/>
-      <c r="AT13" s="123"/>
-      <c r="AU13" s="123"/>
-      <c r="AV13" s="123"/>
-      <c r="AW13" s="123"/>
-      <c r="AX13" s="123"/>
-      <c r="AY13" s="123"/>
-      <c r="AZ13" s="123"/>
-      <c r="BA13" s="123"/>
-      <c r="BB13" s="123"/>
-      <c r="BC13" s="123"/>
-      <c r="BD13" s="123"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AN13" s="122"/>
+      <c r="AO13" s="122"/>
+      <c r="AP13" s="122"/>
+      <c r="AQ13" s="122"/>
+      <c r="AR13" s="122"/>
+      <c r="AS13" s="122"/>
+      <c r="AT13" s="122"/>
+      <c r="AU13" s="122"/>
+      <c r="AV13" s="122"/>
+      <c r="AW13" s="122"/>
+      <c r="AX13" s="122"/>
+      <c r="AY13" s="122"/>
+      <c r="AZ13" s="122"/>
+      <c r="BA13" s="122"/>
+      <c r="BB13" s="122"/>
+      <c r="BC13" s="122"/>
+      <c r="BD13" s="122"/>
     </row>
     <row r="14" spans="1:56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -4785,34 +4785,34 @@
       <c r="Z14" s="41"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="12"/>
-      <c r="AC14" s="123"/>
-      <c r="AD14" s="123"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="123"/>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="123"/>
-      <c r="AM14" s="123"/>
-      <c r="AN14" s="123"/>
-      <c r="AO14" s="123"/>
-      <c r="AP14" s="123"/>
-      <c r="AQ14" s="123"/>
-      <c r="AR14" s="123"/>
-      <c r="AS14" s="123"/>
-      <c r="AT14" s="123"/>
-      <c r="AU14" s="123"/>
-      <c r="AV14" s="123"/>
-      <c r="AW14" s="123"/>
-      <c r="AX14" s="123"/>
-      <c r="AY14" s="123"/>
-      <c r="AZ14" s="123"/>
-      <c r="BA14" s="123"/>
-      <c r="BB14" s="123"/>
-      <c r="BC14" s="123"/>
-      <c r="BD14" s="123"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="122"/>
+      <c r="AJ14" s="122"/>
+      <c r="AK14" s="122"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
+      <c r="AN14" s="122"/>
+      <c r="AO14" s="122"/>
+      <c r="AP14" s="122"/>
+      <c r="AQ14" s="122"/>
+      <c r="AR14" s="122"/>
+      <c r="AS14" s="122"/>
+      <c r="AT14" s="122"/>
+      <c r="AU14" s="122"/>
+      <c r="AV14" s="122"/>
+      <c r="AW14" s="122"/>
+      <c r="AX14" s="122"/>
+      <c r="AY14" s="122"/>
+      <c r="AZ14" s="122"/>
+      <c r="BA14" s="122"/>
+      <c r="BB14" s="122"/>
+      <c r="BC14" s="122"/>
+      <c r="BD14" s="122"/>
     </row>
     <row r="15" spans="1:56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -4850,34 +4850,34 @@
       <c r="Z15" s="42"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="13"/>
-      <c r="AC15" s="123"/>
-      <c r="AD15" s="123"/>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="123"/>
-      <c r="AK15" s="123"/>
-      <c r="AL15" s="123"/>
-      <c r="AM15" s="123"/>
-      <c r="AN15" s="123"/>
-      <c r="AO15" s="123"/>
-      <c r="AP15" s="123"/>
-      <c r="AQ15" s="123"/>
-      <c r="AR15" s="123"/>
-      <c r="AS15" s="123"/>
-      <c r="AT15" s="123"/>
-      <c r="AU15" s="123"/>
-      <c r="AV15" s="123"/>
-      <c r="AW15" s="123"/>
-      <c r="AX15" s="123"/>
-      <c r="AY15" s="123"/>
-      <c r="AZ15" s="123"/>
-      <c r="BA15" s="123"/>
-      <c r="BB15" s="123"/>
-      <c r="BC15" s="123"/>
-      <c r="BD15" s="123"/>
+      <c r="AC15" s="122"/>
+      <c r="AD15" s="122"/>
+      <c r="AE15" s="122"/>
+      <c r="AF15" s="122"/>
+      <c r="AG15" s="122"/>
+      <c r="AH15" s="122"/>
+      <c r="AI15" s="122"/>
+      <c r="AJ15" s="122"/>
+      <c r="AK15" s="122"/>
+      <c r="AL15" s="122"/>
+      <c r="AM15" s="122"/>
+      <c r="AN15" s="122"/>
+      <c r="AO15" s="122"/>
+      <c r="AP15" s="122"/>
+      <c r="AQ15" s="122"/>
+      <c r="AR15" s="122"/>
+      <c r="AS15" s="122"/>
+      <c r="AT15" s="122"/>
+      <c r="AU15" s="122"/>
+      <c r="AV15" s="122"/>
+      <c r="AW15" s="122"/>
+      <c r="AX15" s="122"/>
+      <c r="AY15" s="122"/>
+      <c r="AZ15" s="122"/>
+      <c r="BA15" s="122"/>
+      <c r="BB15" s="122"/>
+      <c r="BC15" s="122"/>
+      <c r="BD15" s="122"/>
     </row>
     <row r="16" spans="1:56" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
@@ -4915,34 +4915,34 @@
       <c r="Z16" s="42"/>
       <c r="AA16" s="22"/>
       <c r="AB16" s="13"/>
-      <c r="AC16" s="123"/>
-      <c r="AD16" s="123"/>
-      <c r="AE16" s="123"/>
-      <c r="AF16" s="123"/>
-      <c r="AG16" s="123"/>
-      <c r="AH16" s="123"/>
-      <c r="AI16" s="123"/>
-      <c r="AJ16" s="123"/>
-      <c r="AK16" s="123"/>
-      <c r="AL16" s="123"/>
-      <c r="AM16" s="123"/>
-      <c r="AN16" s="123"/>
-      <c r="AO16" s="123"/>
-      <c r="AP16" s="123"/>
-      <c r="AQ16" s="123"/>
-      <c r="AR16" s="123"/>
-      <c r="AS16" s="123"/>
-      <c r="AT16" s="123"/>
-      <c r="AU16" s="123"/>
-      <c r="AV16" s="123"/>
-      <c r="AW16" s="123"/>
-      <c r="AX16" s="123"/>
-      <c r="AY16" s="123"/>
-      <c r="AZ16" s="123"/>
-      <c r="BA16" s="123"/>
-      <c r="BB16" s="123"/>
-      <c r="BC16" s="123"/>
-      <c r="BD16" s="123"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="122"/>
+      <c r="AE16" s="122"/>
+      <c r="AF16" s="122"/>
+      <c r="AG16" s="122"/>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="122"/>
+      <c r="AK16" s="122"/>
+      <c r="AL16" s="122"/>
+      <c r="AM16" s="122"/>
+      <c r="AN16" s="122"/>
+      <c r="AO16" s="122"/>
+      <c r="AP16" s="122"/>
+      <c r="AQ16" s="122"/>
+      <c r="AR16" s="122"/>
+      <c r="AS16" s="122"/>
+      <c r="AT16" s="122"/>
+      <c r="AU16" s="122"/>
+      <c r="AV16" s="122"/>
+      <c r="AW16" s="122"/>
+      <c r="AX16" s="122"/>
+      <c r="AY16" s="122"/>
+      <c r="AZ16" s="122"/>
+      <c r="BA16" s="122"/>
+      <c r="BB16" s="122"/>
+      <c r="BC16" s="122"/>
+      <c r="BD16" s="122"/>
     </row>
     <row r="17" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -4980,7 +4980,7 @@
       <c r="Z17" s="42"/>
       <c r="AA17" s="22"/>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="123"/>
+      <c r="AC17" s="122"/>
     </row>
     <row r="18" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -5018,7 +5018,7 @@
       <c r="Z18" s="42"/>
       <c r="AA18" s="22"/>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="123"/>
+      <c r="AC18" s="122"/>
     </row>
     <row r="19" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
@@ -5056,7 +5056,7 @@
       <c r="Z19" s="42"/>
       <c r="AA19" s="22"/>
       <c r="AB19" s="14"/>
-      <c r="AC19" s="123"/>
+      <c r="AC19" s="122"/>
     </row>
     <row r="20" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -5091,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="Y20" s="67"/>
-      <c r="Z20" s="121"/>
+      <c r="Z20" s="168"/>
       <c r="AA20" s="22"/>
       <c r="AB20" s="14"/>
-      <c r="AC20" s="131"/>
+      <c r="AC20" s="130"/>
     </row>
     <row r="21" spans="1:29" s="7" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -5132,7 +5132,7 @@
       <c r="Z21" s="42"/>
       <c r="AA21" s="22"/>
       <c r="AB21" s="14"/>
-      <c r="AC21" s="128"/>
+      <c r="AC21" s="127"/>
     </row>
     <row r="22" spans="1:29" s="7" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -5168,7 +5168,7 @@
       <c r="Z22" s="42"/>
       <c r="AA22" s="22"/>
       <c r="AB22" s="14"/>
-      <c r="AC22" s="128"/>
+      <c r="AC22" s="127"/>
     </row>
     <row r="23" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
@@ -5206,7 +5206,7 @@
       <c r="Z23" s="42"/>
       <c r="AA23" s="22"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="123"/>
+      <c r="AC23" s="122"/>
     </row>
     <row r="24" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -5244,7 +5244,7 @@
       <c r="Z24" s="42"/>
       <c r="AA24" s="22"/>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="123"/>
+      <c r="AC24" s="122"/>
     </row>
     <row r="25" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -5282,7 +5282,7 @@
       <c r="Z25" s="42"/>
       <c r="AA25" s="22"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="123"/>
+      <c r="AC25" s="122"/>
     </row>
     <row r="26" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -5320,7 +5320,7 @@
       <c r="Z26" s="42"/>
       <c r="AA26" s="22"/>
       <c r="AB26" s="14"/>
-      <c r="AC26" s="123"/>
+      <c r="AC26" s="122"/>
     </row>
     <row r="27" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
@@ -5332,21 +5332,21 @@
       <c r="C27" s="61"/>
       <c r="D27" s="58"/>
       <c r="E27" s="58"/>
-      <c r="F27" s="132"/>
+      <c r="F27" s="131"/>
       <c r="G27" s="68"/>
       <c r="H27" s="61"/>
       <c r="I27" s="58"/>
       <c r="J27" s="61"/>
       <c r="K27" s="58"/>
       <c r="L27" s="58"/>
-      <c r="M27" s="132"/>
+      <c r="M27" s="131"/>
       <c r="N27" s="68"/>
       <c r="O27" s="61"/>
       <c r="P27" s="58"/>
       <c r="Q27" s="61"/>
       <c r="R27" s="58"/>
       <c r="S27" s="58"/>
-      <c r="T27" s="132"/>
+      <c r="T27" s="131"/>
       <c r="U27" s="68"/>
       <c r="V27" s="61"/>
       <c r="W27" s="58"/>
@@ -5355,12 +5355,10 @@
         <v>0</v>
       </c>
       <c r="Y27" s="67"/>
-      <c r="Z27" s="120">
-        <v>12970356</v>
-      </c>
+      <c r="Z27" s="120"/>
       <c r="AA27" s="22"/>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="123"/>
+      <c r="AC27" s="122"/>
     </row>
     <row r="28" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
@@ -5396,7 +5394,7 @@
       <c r="Z28" s="42"/>
       <c r="AA28" s="22"/>
       <c r="AB28" s="14"/>
-      <c r="AC28" s="123"/>
+      <c r="AC28" s="122"/>
     </row>
     <row r="29" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
@@ -5434,7 +5432,7 @@
       <c r="Z29" s="42"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="14"/>
-      <c r="AC29" s="123"/>
+      <c r="AC29" s="122"/>
     </row>
     <row r="30" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -5470,7 +5468,7 @@
       <c r="Z30" s="42"/>
       <c r="AA30" s="22"/>
       <c r="AB30" s="14"/>
-      <c r="AC30" s="123"/>
+      <c r="AC30" s="122"/>
     </row>
     <row r="31" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
@@ -5506,7 +5504,7 @@
       <c r="Z31" s="43"/>
       <c r="AA31" s="106"/>
       <c r="AB31" s="14"/>
-      <c r="AC31" s="123"/>
+      <c r="AC31" s="122"/>
     </row>
     <row r="32" spans="1:29" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
@@ -5605,11 +5603,11 @@
       <c r="Z32" s="101"/>
       <c r="AA32" s="107"/>
       <c r="AB32" s="15"/>
-      <c r="AC32" s="123"/>
+      <c r="AC32" s="122"/>
     </row>
     <row r="33" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="128"/>
-      <c r="B33" s="128"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="76"/>
       <c r="D33" s="76"/>
       <c r="E33" s="76"/>
@@ -5650,24 +5648,24 @@
         <v>69</v>
       </c>
       <c r="F34" s="80"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
       <c r="I34" s="82" t="s">
         <v>70</v>
       </c>
       <c r="J34" s="77"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="149"/>
       <c r="M34" s="80"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="131"/>
       <c r="P34" s="82"/>
       <c r="Q34" s="77"/>
       <c r="R34" s="78"/>
       <c r="S34" s="79"/>
       <c r="T34" s="80"/>
-      <c r="U34" s="132"/>
-      <c r="V34" s="132"/>
+      <c r="U34" s="131"/>
+      <c r="V34" s="131"/>
       <c r="W34" s="82"/>
       <c r="X34" s="83"/>
       <c r="Y34" s="84"/>
@@ -5676,73 +5674,73 @@
       <c r="AB34" s="17"/>
     </row>
     <row r="35" spans="1:28" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="128"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="132"/>
-      <c r="P35" s="132"/>
-      <c r="Q35" s="132"/>
-      <c r="R35" s="132"/>
-      <c r="S35" s="132"/>
-      <c r="T35" s="132"/>
-      <c r="U35" s="132"/>
-      <c r="V35" s="132"/>
-      <c r="W35" s="132"/>
-      <c r="X35" s="132"/>
-      <c r="Y35" s="132"/>
-      <c r="Z35" s="133"/>
-      <c r="AA35" s="123"/>
-      <c r="AB35" s="123"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="131"/>
+      <c r="S35" s="131"/>
+      <c r="T35" s="131"/>
+      <c r="U35" s="131"/>
+      <c r="V35" s="131"/>
+      <c r="W35" s="131"/>
+      <c r="X35" s="131"/>
+      <c r="Y35" s="131"/>
+      <c r="Z35" s="132"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="122"/>
     </row>
     <row r="36" spans="1:28" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="128"/>
+      <c r="A36" s="127"/>
       <c r="B36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="157" t="s">
+      <c r="C36" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="168"/>
-      <c r="L36" s="168"/>
-      <c r="M36" s="168"/>
-      <c r="N36" s="168"/>
-      <c r="O36" s="168"/>
-      <c r="P36" s="168"/>
-      <c r="Q36" s="167"/>
-      <c r="R36" s="168"/>
-      <c r="S36" s="168"/>
-      <c r="T36" s="168"/>
-      <c r="U36" s="168"/>
-      <c r="V36" s="168"/>
-      <c r="W36" s="168"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="166"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="166"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="167"/>
+      <c r="T36" s="167"/>
+      <c r="U36" s="167"/>
+      <c r="V36" s="167"/>
+      <c r="W36" s="167"/>
       <c r="X36" s="85"/>
-      <c r="Y36" s="162" t="s">
+      <c r="Y36" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="Z36" s="163"/>
-      <c r="AA36" s="164"/>
+      <c r="Z36" s="162"/>
+      <c r="AA36" s="163"/>
       <c r="AB36" s="18"/>
     </row>
     <row r="37" spans="1:28" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="128"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="24" t="s">
         <v>74</v>
       </c>
@@ -5780,28 +5778,28 @@
       <c r="V37"/>
       <c r="W37"/>
       <c r="X37" s="86"/>
-      <c r="Y37" s="151" t="s">
+      <c r="Y37" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="Z37" s="152"/>
+      <c r="Z37" s="151"/>
       <c r="AA37" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AB37" s="123"/>
+      <c r="AB37" s="122"/>
     </row>
     <row r="38" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="128"/>
+      <c r="A38" s="127"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="134">
+      <c r="C38" s="121"/>
+      <c r="D38" s="133">
         <f>X15+X16+X17+X18+X23+X27+X28+X19+X24+X25+X26+X29</f>
         <v>0</v>
       </c>
       <c r="E38" s="88"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="136"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="135"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
@@ -5816,27 +5814,25 @@
       <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
-      <c r="X38" s="137"/>
+      <c r="X38" s="136"/>
       <c r="Y38" s="89"/>
       <c r="Z38" s="26"/>
       <c r="AA38" s="27"/>
-      <c r="AB38" s="123"/>
+      <c r="AB38" s="122"/>
     </row>
     <row r="39" spans="1:28" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="128"/>
+      <c r="A39" s="127"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="138">
+      <c r="C39" s="169"/>
+      <c r="D39" s="137">
         <f>X20+X21</f>
         <v>0</v>
       </c>
       <c r="E39" s="91"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="140"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="139"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
@@ -5851,24 +5847,24 @@
       <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
-      <c r="X39" s="137"/>
+      <c r="X39" s="136"/>
       <c r="Y39" s="92"/>
       <c r="Z39" s="28"/>
       <c r="AA39" s="29"/>
-      <c r="AB39" s="123"/>
+      <c r="AB39" s="122"/>
     </row>
     <row r="40" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="128"/>
+      <c r="A40" s="127"/>
       <c r="B40" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="90"/>
-      <c r="D40" s="138"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="93"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="140"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="139"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
@@ -5883,22 +5879,22 @@
       <c r="U40"/>
       <c r="V40"/>
       <c r="W40"/>
-      <c r="X40" s="137"/>
+      <c r="X40" s="136"/>
       <c r="Y40" s="92"/>
       <c r="Z40" s="28"/>
       <c r="AA40" s="29"/>
-      <c r="AB40" s="123"/>
+      <c r="AB40" s="122"/>
     </row>
     <row r="41" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="128"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="142"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="141"/>
       <c r="E41" s="94"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="144"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="143"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
@@ -5913,19 +5909,19 @@
       <c r="U41"/>
       <c r="V41"/>
       <c r="W41"/>
-      <c r="X41" s="137"/>
+      <c r="X41" s="136"/>
       <c r="Y41" s="92"/>
       <c r="Z41" s="28"/>
       <c r="AA41" s="29"/>
-      <c r="AB41" s="123"/>
+      <c r="AB41" s="122"/>
     </row>
     <row r="42" spans="1:28" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="128"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="23"/>
       <c r="C42" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="145">
+      <c r="D42" s="144">
         <f>D40+D39+D38</f>
         <v>0</v>
       </c>
@@ -5933,13 +5929,13 @@
         <f>D42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="145">
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="144">
         <f>IF(G42&lt;E42,E42-G42,0)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="147">
+      <c r="I42" s="146">
         <f>IF(G42&gt;E42,G42-E42,0)</f>
         <v>0</v>
       </c>
@@ -5957,43 +5953,43 @@
       <c r="U42"/>
       <c r="V42"/>
       <c r="W42"/>
-      <c r="X42" s="137"/>
+      <c r="X42" s="136"/>
       <c r="Y42" s="102"/>
       <c r="Z42" s="103"/>
       <c r="AA42" s="104"/>
-      <c r="AB42" s="123"/>
+      <c r="AB42" s="122"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="128"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="148"/>
-      <c r="Q43" s="132"/>
-      <c r="R43" s="132"/>
-      <c r="S43" s="132"/>
-      <c r="T43" s="132"/>
-      <c r="U43" s="132"/>
-      <c r="V43" s="132"/>
-      <c r="W43" s="148"/>
-      <c r="X43" s="148"/>
-      <c r="Y43" s="132"/>
-      <c r="Z43" s="133"/>
-      <c r="AA43" s="123"/>
-      <c r="AB43" s="123"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="147"/>
+      <c r="Q43" s="131"/>
+      <c r="R43" s="131"/>
+      <c r="S43" s="131"/>
+      <c r="T43" s="131"/>
+      <c r="U43" s="131"/>
+      <c r="V43" s="131"/>
+      <c r="W43" s="147"/>
+      <c r="X43" s="147"/>
+      <c r="Y43" s="131"/>
+      <c r="Z43" s="132"/>
+      <c r="AA43" s="122"/>
+      <c r="AB43" s="122"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
